--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -88,16 +97,7 @@
     <t>Igf1r</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N2">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O2">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P2">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q2">
-        <v>3.75380703907836</v>
+        <v>0.01818783488888889</v>
       </c>
       <c r="R2">
-        <v>3.75380703907836</v>
+        <v>0.163690514</v>
       </c>
       <c r="S2">
-        <v>0.0686496846371453</v>
+        <v>0.0001112579761672317</v>
       </c>
       <c r="T2">
-        <v>0.0686496846371453</v>
+        <v>0.0001112579761672317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N3">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q3">
-        <v>5.42196178575549</v>
+        <v>0.02324569866666666</v>
       </c>
       <c r="R3">
-        <v>5.42196178575549</v>
+        <v>0.209211288</v>
       </c>
       <c r="S3">
-        <v>0.09915692597724854</v>
+        <v>0.0001421977604286821</v>
       </c>
       <c r="T3">
-        <v>0.09915692597724854</v>
+        <v>0.0001421977604286822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N4">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q4">
-        <v>1.219715269763215</v>
+        <v>0.005356430444444444</v>
       </c>
       <c r="R4">
-        <v>1.219715269763215</v>
+        <v>0.04820787399999999</v>
       </c>
       <c r="S4">
-        <v>0.02230617283857872</v>
+        <v>3.276616564698982E-05</v>
       </c>
       <c r="T4">
-        <v>0.02230617283857872</v>
+        <v>3.276616564698983E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H5">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N5">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q5">
-        <v>1.459103233136599</v>
+        <v>0.006373678277777777</v>
       </c>
       <c r="R5">
-        <v>1.459103233136599</v>
+        <v>0.05736310449999999</v>
       </c>
       <c r="S5">
-        <v>0.02668410383514539</v>
+        <v>3.898883788305178E-05</v>
       </c>
       <c r="T5">
-        <v>0.02668410383514539</v>
+        <v>3.89888378830518E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H6">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N6">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q6">
-        <v>23.55945404765569</v>
+        <v>0.1050148370555556</v>
       </c>
       <c r="R6">
-        <v>23.55945404765569</v>
+        <v>0.9451335335</v>
       </c>
       <c r="S6">
-        <v>0.4308556816473905</v>
+        <v>0.0006423930231228577</v>
       </c>
       <c r="T6">
-        <v>0.4308556816473905</v>
+        <v>0.0006423930231228578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H7">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N7">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q7">
-        <v>5.867472813755</v>
+        <v>0.03192096266666666</v>
       </c>
       <c r="R7">
-        <v>5.867472813755</v>
+        <v>0.287288664</v>
       </c>
       <c r="S7">
-        <v>0.1073044389570436</v>
+        <v>0.0001952657765643513</v>
       </c>
       <c r="T7">
-        <v>0.1073044389570436</v>
+        <v>0.0001952657765643514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H8">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N8">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O8">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P8">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q8">
-        <v>1.218405947667787</v>
+        <v>2.522896136263556</v>
       </c>
       <c r="R8">
-        <v>1.218405947667787</v>
+        <v>22.706065226372</v>
       </c>
       <c r="S8">
-        <v>0.02228222793464417</v>
+        <v>0.0154329704396145</v>
       </c>
       <c r="T8">
-        <v>0.02228222793464417</v>
+        <v>0.01543297043961451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H9">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N9">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q9">
-        <v>1.759853508456816</v>
+        <v>3.224489539802666</v>
       </c>
       <c r="R9">
-        <v>1.759853508456816</v>
+        <v>29.020405858224</v>
       </c>
       <c r="S9">
-        <v>0.03218422979802297</v>
+        <v>0.0197247326337901</v>
       </c>
       <c r="T9">
-        <v>0.03218422979802297</v>
+        <v>0.01972473263379011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H10">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N10">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q10">
-        <v>0.3958936417535175</v>
+        <v>0.7430085964057777</v>
       </c>
       <c r="R10">
-        <v>0.3958936417535175</v>
+        <v>6.687077367652</v>
       </c>
       <c r="S10">
-        <v>0.007240109407142762</v>
+        <v>0.004545105737762302</v>
       </c>
       <c r="T10">
-        <v>0.007240109407142762</v>
+        <v>0.004545105737762303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H11">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N11">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q11">
-        <v>0.4735938845571065</v>
+        <v>0.884114486360111</v>
       </c>
       <c r="R11">
-        <v>0.4735938845571065</v>
+        <v>7.957030377240999</v>
       </c>
       <c r="S11">
-        <v>0.008661092720660561</v>
+        <v>0.00540827366497864</v>
       </c>
       <c r="T11">
-        <v>0.008661092720660561</v>
+        <v>0.005408273664978642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H12">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N12">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q12">
-        <v>7.646897839084798</v>
+        <v>14.56696348280922</v>
       </c>
       <c r="R12">
-        <v>7.646897839084798</v>
+        <v>131.102671345283</v>
       </c>
       <c r="S12">
-        <v>0.1398465929763208</v>
+        <v>0.08910851049068061</v>
       </c>
       <c r="T12">
-        <v>0.1398465929763208</v>
+        <v>0.08910851049068062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3005456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.901637</v>
+      </c>
+      <c r="I13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="J13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.732752</v>
+      </c>
+      <c r="N13">
+        <v>44.198256</v>
+      </c>
+      <c r="O13">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P13">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q13">
+        <v>4.427864771674666</v>
+      </c>
+      <c r="R13">
+        <v>39.850782945072</v>
+      </c>
+      <c r="S13">
+        <v>0.02708597676679262</v>
+      </c>
+      <c r="T13">
+        <v>0.02708597676679263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.381188</v>
+      </c>
+      <c r="I14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.394385333333334</v>
+      </c>
+      <c r="N14">
+        <v>25.183156</v>
+      </c>
+      <c r="O14">
+        <v>0.0956753723079781</v>
+      </c>
+      <c r="P14">
+        <v>0.09567537230797811</v>
+      </c>
+      <c r="Q14">
+        <v>6.662869874369778</v>
+      </c>
+      <c r="R14">
+        <v>59.965828869328</v>
+      </c>
+      <c r="S14">
+        <v>0.04075787042364586</v>
+      </c>
+      <c r="T14">
+        <v>0.04075787042364586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.381188</v>
+      </c>
+      <c r="I15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.728784</v>
+      </c>
+      <c r="N15">
+        <v>32.186352</v>
+      </c>
+      <c r="O15">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="P15">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="Q15">
+        <v>8.515750571797332</v>
+      </c>
+      <c r="R15">
+        <v>76.641755146176</v>
+      </c>
+      <c r="S15">
+        <v>0.05209224627071581</v>
+      </c>
+      <c r="T15">
+        <v>0.05209224627071582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.381188</v>
+      </c>
+      <c r="I16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.472198666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.416595999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="P16">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="Q16">
+        <v>1.962256599560888</v>
+      </c>
+      <c r="R16">
+        <v>17.660309396048</v>
+      </c>
+      <c r="S16">
+        <v>0.01200344622224991</v>
+      </c>
+      <c r="T16">
+        <v>0.01200344622224991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.381188</v>
+      </c>
+      <c r="I17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.941697666666666</v>
+      </c>
+      <c r="N17">
+        <v>8.825092999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03352812723026181</v>
+      </c>
+      <c r="P17">
+        <v>0.03352812723026182</v>
+      </c>
+      <c r="Q17">
+        <v>2.334911727831555</v>
+      </c>
+      <c r="R17">
+        <v>21.014205550484</v>
+      </c>
+      <c r="S17">
+        <v>0.01428303890785666</v>
+      </c>
+      <c r="T17">
+        <v>0.01428303890785667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.381188</v>
+      </c>
+      <c r="I18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.46838633333333</v>
+      </c>
+      <c r="N18">
+        <v>145.405159</v>
+      </c>
+      <c r="O18">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="P18">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="Q18">
+        <v>38.47077997209911</v>
+      </c>
+      <c r="R18">
+        <v>346.237019748892</v>
+      </c>
+      <c r="S18">
+        <v>0.2353320858375187</v>
+      </c>
+      <c r="T18">
+        <v>0.2353320858375187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.381188</v>
+      </c>
+      <c r="I19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.732752</v>
+      </c>
+      <c r="N19">
+        <v>44.198256</v>
+      </c>
+      <c r="O19">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P19">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q19">
+        <v>11.69381742312533</v>
+      </c>
+      <c r="R19">
+        <v>105.244356808128</v>
+      </c>
+      <c r="S19">
+        <v>0.07153300368703303</v>
+      </c>
+      <c r="T19">
+        <v>0.07153300368703304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.71648</v>
+      </c>
+      <c r="I20">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J20">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.394385333333334</v>
+      </c>
+      <c r="N20">
+        <v>25.183156</v>
+      </c>
+      <c r="O20">
+        <v>0.0956753723079781</v>
+      </c>
+      <c r="P20">
+        <v>0.09567537230797811</v>
+      </c>
+      <c r="Q20">
+        <v>4.80293151232</v>
+      </c>
+      <c r="R20">
+        <v>43.22638361087999</v>
+      </c>
+      <c r="S20">
+        <v>0.02938032168177381</v>
+      </c>
+      <c r="T20">
+        <v>0.02938032168177382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.71648</v>
+      </c>
+      <c r="I21">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J21">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.728784</v>
+      </c>
+      <c r="N21">
+        <v>32.186352</v>
+      </c>
+      <c r="O21">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="P21">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="Q21">
+        <v>6.138581053439998</v>
+      </c>
+      <c r="R21">
+        <v>55.24722948095999</v>
+      </c>
+      <c r="S21">
+        <v>0.03755070951086527</v>
+      </c>
+      <c r="T21">
+        <v>0.03755070951086528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="H13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="I13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="J13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.3570447113631</v>
-      </c>
-      <c r="N13">
-        <v>11.3570447113631</v>
-      </c>
-      <c r="O13">
-        <v>0.1421331782277005</v>
-      </c>
-      <c r="P13">
-        <v>0.1421331782277005</v>
-      </c>
-      <c r="Q13">
-        <v>1.904456915242335</v>
-      </c>
-      <c r="R13">
-        <v>1.904456915242335</v>
-      </c>
-      <c r="S13">
-        <v>0.03482873927065692</v>
-      </c>
-      <c r="T13">
-        <v>0.03482873927065692</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.71648</v>
+      </c>
+      <c r="I22">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J22">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.472198666666666</v>
+      </c>
+      <c r="N22">
+        <v>7.416595999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="P22">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="Q22">
+        <v>1.41449318912</v>
+      </c>
+      <c r="R22">
+        <v>12.73043870208</v>
+      </c>
+      <c r="S22">
+        <v>0.008652687386114627</v>
+      </c>
+      <c r="T22">
+        <v>0.008652687386114631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.71648</v>
+      </c>
+      <c r="I23">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J23">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.941697666666666</v>
+      </c>
+      <c r="N23">
+        <v>8.825092999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.03352812723026181</v>
+      </c>
+      <c r="P23">
+        <v>0.03352812723026182</v>
+      </c>
+      <c r="Q23">
+        <v>1.68312173696</v>
+      </c>
+      <c r="R23">
+        <v>15.14809563264</v>
+      </c>
+      <c r="S23">
+        <v>0.01029593237684626</v>
+      </c>
+      <c r="T23">
+        <v>0.01029593237684627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.71648</v>
+      </c>
+      <c r="I24">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J24">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.46838633333333</v>
+      </c>
+      <c r="N24">
+        <v>145.405159</v>
+      </c>
+      <c r="O24">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="P24">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="Q24">
+        <v>27.73167192448</v>
+      </c>
+      <c r="R24">
+        <v>249.58504732032</v>
+      </c>
+      <c r="S24">
+        <v>0.1696391963584496</v>
+      </c>
+      <c r="T24">
+        <v>0.1696391963584497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.71648</v>
+      </c>
+      <c r="I25">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J25">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.732752</v>
+      </c>
+      <c r="N25">
+        <v>44.198256</v>
+      </c>
+      <c r="O25">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P25">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q25">
+        <v>8.429491384319999</v>
+      </c>
+      <c r="R25">
+        <v>75.86542245887999</v>
+      </c>
+      <c r="S25">
+        <v>0.05156458463956581</v>
+      </c>
+      <c r="T25">
+        <v>0.05156458463956583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.394385333333334</v>
+      </c>
+      <c r="N26">
+        <v>25.183156</v>
+      </c>
+      <c r="O26">
+        <v>0.0956753723079781</v>
+      </c>
+      <c r="P26">
+        <v>0.09567537230797811</v>
+      </c>
+      <c r="Q26">
+        <v>1.633592155921778</v>
+      </c>
+      <c r="R26">
+        <v>14.702329403296</v>
+      </c>
+      <c r="S26">
+        <v>0.009992951786776694</v>
+      </c>
+      <c r="T26">
+        <v>0.009992951786776696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.728784</v>
+      </c>
+      <c r="N27">
+        <v>32.186352</v>
+      </c>
+      <c r="O27">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="P27">
+        <v>0.1222817827454047</v>
+      </c>
+      <c r="Q27">
+        <v>2.087878586581333</v>
+      </c>
+      <c r="R27">
+        <v>18.79090727923199</v>
+      </c>
+      <c r="S27">
+        <v>0.01277189656960484</v>
+      </c>
+      <c r="T27">
+        <v>0.01277189656960485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.472198666666666</v>
+      </c>
+      <c r="N28">
+        <v>7.416595999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="P28">
+        <v>0.0281769919369066</v>
+      </c>
+      <c r="Q28">
+        <v>0.4811030455928887</v>
+      </c>
+      <c r="R28">
+        <v>4.329927410335999</v>
+      </c>
+      <c r="S28">
+        <v>0.00294298642513277</v>
+      </c>
+      <c r="T28">
+        <v>0.002942986425132771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.941697666666666</v>
+      </c>
+      <c r="N29">
+        <v>8.825092999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.03352812723026181</v>
+      </c>
+      <c r="P29">
+        <v>0.03352812723026182</v>
+      </c>
+      <c r="Q29">
+        <v>0.5724700549875554</v>
+      </c>
+      <c r="R29">
+        <v>5.152230494887998</v>
+      </c>
+      <c r="S29">
+        <v>0.003501893442697193</v>
+      </c>
+      <c r="T29">
+        <v>0.003501893442697194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>48.46838633333333</v>
+      </c>
+      <c r="N30">
+        <v>145.405159</v>
+      </c>
+      <c r="O30">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="P30">
+        <v>0.5524205434309247</v>
+      </c>
+      <c r="Q30">
+        <v>9.43220647852711</v>
+      </c>
+      <c r="R30">
+        <v>84.88985830674399</v>
+      </c>
+      <c r="S30">
+        <v>0.05769835772115296</v>
+      </c>
+      <c r="T30">
+        <v>0.05769835772115296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.732752</v>
+      </c>
+      <c r="N31">
+        <v>44.198256</v>
+      </c>
+      <c r="O31">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="P31">
+        <v>0.167917182348524</v>
+      </c>
+      <c r="Q31">
+        <v>2.867072113877333</v>
+      </c>
+      <c r="R31">
+        <v>25.803649024896</v>
+      </c>
+      <c r="S31">
+        <v>0.01753835147856821</v>
+      </c>
+      <c r="T31">
+        <v>0.01753835147856821</v>
       </c>
     </row>
   </sheetData>
